--- a/utils/plots/Variable_Groups.xlsx
+++ b/utils/plots/Variable_Groups.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\Arbeit\use-cases-harmonisation\utils\plots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schwarz-f\Desktop\use-cases-harmonisation\utils\plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B228598-D398-47EE-9D78-CA373583B674}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="443">
   <si>
     <t>name</t>
   </si>
@@ -1353,24 +1354,12 @@
   </si>
   <si>
     <t>ident</t>
-  </si>
-  <si>
-    <t>xmin</t>
-  </si>
-  <si>
-    <t>xmax</t>
-  </si>
-  <si>
-    <t>ymin</t>
-  </si>
-  <si>
-    <t>ymax</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1716,11 +1705,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G216"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C216"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D1" sqref="D1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1730,7 +1719,7 @@
     <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1740,20 +1729,8 @@
       <c r="C1" t="s">
         <v>432</v>
       </c>
-      <c r="D1" t="s">
-        <v>443</v>
-      </c>
-      <c r="E1" t="s">
-        <v>444</v>
-      </c>
-      <c r="F1" t="s">
-        <v>445</v>
-      </c>
-      <c r="G1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>396</v>
       </c>
@@ -1763,20 +1740,8 @@
       <c r="C2" t="s">
         <v>437</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1786,20 +1751,8 @@
       <c r="C3" t="s">
         <v>437</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>374</v>
       </c>
@@ -1809,20 +1762,8 @@
       <c r="C4" t="s">
         <v>437</v>
       </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>376</v>
       </c>
@@ -1832,20 +1773,8 @@
       <c r="C5" t="s">
         <v>437</v>
       </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>378</v>
       </c>
@@ -1855,20 +1784,8 @@
       <c r="C6" t="s">
         <v>437</v>
       </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>394</v>
       </c>
@@ -1878,20 +1795,8 @@
       <c r="C7" t="s">
         <v>437</v>
       </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>392</v>
       </c>
@@ -1901,20 +1806,8 @@
       <c r="C8" t="s">
         <v>437</v>
       </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>390</v>
       </c>
@@ -1924,20 +1817,8 @@
       <c r="C9" t="s">
         <v>437</v>
       </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>388</v>
       </c>
@@ -1947,20 +1828,8 @@
       <c r="C10" t="s">
         <v>437</v>
       </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>384</v>
       </c>
@@ -1970,20 +1839,8 @@
       <c r="C11" t="s">
         <v>437</v>
       </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>386</v>
       </c>
@@ -1993,20 +1850,8 @@
       <c r="C12" t="s">
         <v>437</v>
       </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>11</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>382</v>
       </c>
@@ -2016,20 +1861,8 @@
       <c r="C13" t="s">
         <v>437</v>
       </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>12</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>380</v>
       </c>
@@ -2039,20 +1872,8 @@
       <c r="C14" t="s">
         <v>437</v>
       </c>
-      <c r="D14">
-        <v>13</v>
-      </c>
-      <c r="E14">
-        <v>13</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>284</v>
       </c>
@@ -2062,20 +1883,8 @@
       <c r="C15" t="s">
         <v>438</v>
       </c>
-      <c r="D15">
-        <v>9</v>
-      </c>
-      <c r="E15">
-        <v>9</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>288</v>
       </c>
@@ -2085,20 +1894,8 @@
       <c r="C16" t="s">
         <v>438</v>
       </c>
-      <c r="D16">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <v>10</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-      <c r="G16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>286</v>
       </c>
@@ -2108,20 +1905,8 @@
       <c r="C17" t="s">
         <v>438</v>
       </c>
-      <c r="D17">
-        <v>11</v>
-      </c>
-      <c r="E17">
-        <v>11</v>
-      </c>
-      <c r="F17">
-        <v>5</v>
-      </c>
-      <c r="G17">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>282</v>
       </c>
@@ -2131,20 +1916,8 @@
       <c r="C18" t="s">
         <v>438</v>
       </c>
-      <c r="D18">
-        <v>12</v>
-      </c>
-      <c r="E18">
-        <v>12</v>
-      </c>
-      <c r="F18">
-        <v>5</v>
-      </c>
-      <c r="G18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>316</v>
       </c>
@@ -2154,20 +1927,8 @@
       <c r="C19" t="s">
         <v>439</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>5</v>
-      </c>
-      <c r="G19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>310</v>
       </c>
@@ -2177,20 +1938,8 @@
       <c r="C20" t="s">
         <v>439</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>7</v>
-      </c>
-      <c r="G20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>304</v>
       </c>
@@ -2200,20 +1949,8 @@
       <c r="C21" t="s">
         <v>439</v>
       </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>5</v>
-      </c>
-      <c r="G21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>302</v>
       </c>
@@ -2223,20 +1960,8 @@
       <c r="C22" t="s">
         <v>439</v>
       </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>7</v>
-      </c>
-      <c r="G22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>298</v>
       </c>
@@ -2246,20 +1971,8 @@
       <c r="C23" t="s">
         <v>439</v>
       </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>5</v>
-      </c>
-      <c r="G23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>300</v>
       </c>
@@ -2269,20 +1982,8 @@
       <c r="C24" t="s">
         <v>439</v>
       </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>7</v>
-      </c>
-      <c r="G24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>308</v>
       </c>
@@ -2292,20 +1993,8 @@
       <c r="C25" t="s">
         <v>439</v>
       </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-      <c r="F25">
-        <v>5</v>
-      </c>
-      <c r="G25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>314</v>
       </c>
@@ -2315,20 +2004,8 @@
       <c r="C26" t="s">
         <v>439</v>
       </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26">
-        <v>4</v>
-      </c>
-      <c r="F26">
-        <v>7</v>
-      </c>
-      <c r="G26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>320</v>
       </c>
@@ -2338,20 +2015,8 @@
       <c r="C27" t="s">
         <v>439</v>
       </c>
-      <c r="D27">
-        <v>5</v>
-      </c>
-      <c r="E27">
-        <v>5</v>
-      </c>
-      <c r="F27">
-        <v>5</v>
-      </c>
-      <c r="G27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>318</v>
       </c>
@@ -2361,20 +2026,8 @@
       <c r="C28" t="s">
         <v>439</v>
       </c>
-      <c r="D28">
-        <v>5</v>
-      </c>
-      <c r="E28">
-        <v>5</v>
-      </c>
-      <c r="F28">
-        <v>7</v>
-      </c>
-      <c r="G28">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>312</v>
       </c>
@@ -2384,20 +2037,8 @@
       <c r="C29" t="s">
         <v>439</v>
       </c>
-      <c r="D29">
-        <v>6</v>
-      </c>
-      <c r="E29">
-        <v>6</v>
-      </c>
-      <c r="F29">
-        <v>5</v>
-      </c>
-      <c r="G29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>296</v>
       </c>
@@ -2407,20 +2048,8 @@
       <c r="C30" t="s">
         <v>439</v>
       </c>
-      <c r="D30">
-        <v>6</v>
-      </c>
-      <c r="E30">
-        <v>6</v>
-      </c>
-      <c r="F30">
-        <v>7</v>
-      </c>
-      <c r="G30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>294</v>
       </c>
@@ -2430,20 +2059,8 @@
       <c r="C31" t="s">
         <v>439</v>
       </c>
-      <c r="D31">
-        <v>7</v>
-      </c>
-      <c r="E31">
-        <v>7</v>
-      </c>
-      <c r="F31">
-        <v>5</v>
-      </c>
-      <c r="G31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>290</v>
       </c>
@@ -2453,20 +2070,8 @@
       <c r="C32" t="s">
         <v>439</v>
       </c>
-      <c r="D32">
-        <v>7</v>
-      </c>
-      <c r="E32">
-        <v>7</v>
-      </c>
-      <c r="F32">
-        <v>7</v>
-      </c>
-      <c r="G32">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>292</v>
       </c>
@@ -2476,20 +2081,8 @@
       <c r="C33" t="s">
         <v>439</v>
       </c>
-      <c r="D33">
-        <v>8</v>
-      </c>
-      <c r="E33">
-        <v>8</v>
-      </c>
-      <c r="F33">
-        <v>5</v>
-      </c>
-      <c r="G33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>306</v>
       </c>
@@ -2499,20 +2092,8 @@
       <c r="C34" t="s">
         <v>439</v>
       </c>
-      <c r="D34">
-        <v>8</v>
-      </c>
-      <c r="E34">
-        <v>8</v>
-      </c>
-      <c r="F34">
-        <v>7</v>
-      </c>
-      <c r="G34">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>202</v>
       </c>
@@ -2522,20 +2103,8 @@
       <c r="C35" t="s">
         <v>441</v>
       </c>
-      <c r="D35">
-        <v>9</v>
-      </c>
-      <c r="E35">
-        <v>9</v>
-      </c>
-      <c r="F35">
-        <v>10</v>
-      </c>
-      <c r="G35">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>254</v>
       </c>
@@ -2545,20 +2114,8 @@
       <c r="C36" t="s">
         <v>441</v>
       </c>
-      <c r="D36">
-        <v>10</v>
-      </c>
-      <c r="E36">
-        <v>10</v>
-      </c>
-      <c r="F36">
-        <v>10</v>
-      </c>
-      <c r="G36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>250</v>
       </c>
@@ -2568,20 +2125,8 @@
       <c r="C37" t="s">
         <v>441</v>
       </c>
-      <c r="D37">
-        <v>11</v>
-      </c>
-      <c r="E37">
-        <v>11</v>
-      </c>
-      <c r="F37">
-        <v>10</v>
-      </c>
-      <c r="G37">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>102</v>
       </c>
@@ -2591,20 +2136,8 @@
       <c r="C38" t="s">
         <v>441</v>
       </c>
-      <c r="D38">
-        <v>12</v>
-      </c>
-      <c r="E38">
-        <v>12</v>
-      </c>
-      <c r="F38">
-        <v>10</v>
-      </c>
-      <c r="G38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>208</v>
       </c>
@@ -2614,20 +2147,8 @@
       <c r="C39" t="s">
         <v>441</v>
       </c>
-      <c r="D39">
-        <v>13</v>
-      </c>
-      <c r="E39">
-        <v>13</v>
-      </c>
-      <c r="F39">
-        <v>10</v>
-      </c>
-      <c r="G39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>240</v>
       </c>
@@ -2637,20 +2158,8 @@
       <c r="C40" t="s">
         <v>441</v>
       </c>
-      <c r="D40">
-        <v>14</v>
-      </c>
-      <c r="E40">
-        <v>14</v>
-      </c>
-      <c r="F40">
-        <v>10</v>
-      </c>
-      <c r="G40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>88</v>
       </c>
@@ -2660,20 +2169,8 @@
       <c r="C41" t="s">
         <v>441</v>
       </c>
-      <c r="D41">
-        <v>15</v>
-      </c>
-      <c r="E41">
-        <v>15</v>
-      </c>
-      <c r="F41">
-        <v>10</v>
-      </c>
-      <c r="G41">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -2683,20 +2180,8 @@
       <c r="C42" t="s">
         <v>441</v>
       </c>
-      <c r="D42">
-        <v>16</v>
-      </c>
-      <c r="E42">
-        <v>16</v>
-      </c>
-      <c r="F42">
-        <v>10</v>
-      </c>
-      <c r="G42">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -2706,20 +2191,8 @@
       <c r="C43" t="s">
         <v>441</v>
       </c>
-      <c r="D43">
-        <v>17</v>
-      </c>
-      <c r="E43">
-        <v>17</v>
-      </c>
-      <c r="F43">
-        <v>10</v>
-      </c>
-      <c r="G43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>150</v>
       </c>
@@ -2729,20 +2202,8 @@
       <c r="C44" t="s">
         <v>441</v>
       </c>
-      <c r="D44">
-        <v>18</v>
-      </c>
-      <c r="E44">
-        <v>18</v>
-      </c>
-      <c r="F44">
-        <v>10</v>
-      </c>
-      <c r="G44">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -2752,20 +2213,8 @@
       <c r="C45" t="s">
         <v>441</v>
       </c>
-      <c r="D45">
-        <v>19</v>
-      </c>
-      <c r="E45">
-        <v>19</v>
-      </c>
-      <c r="F45">
-        <v>10</v>
-      </c>
-      <c r="G45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>178</v>
       </c>
@@ -2775,20 +2224,8 @@
       <c r="C46" t="s">
         <v>441</v>
       </c>
-      <c r="D46">
-        <v>20</v>
-      </c>
-      <c r="E46">
-        <v>20</v>
-      </c>
-      <c r="F46">
-        <v>10</v>
-      </c>
-      <c r="G46">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>80</v>
       </c>
@@ -2798,20 +2235,8 @@
       <c r="C47" t="s">
         <v>441</v>
       </c>
-      <c r="D47">
-        <v>9</v>
-      </c>
-      <c r="E47">
-        <v>9</v>
-      </c>
-      <c r="F47">
-        <v>11</v>
-      </c>
-      <c r="G47">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>68</v>
       </c>
@@ -2821,20 +2246,8 @@
       <c r="C48" t="s">
         <v>441</v>
       </c>
-      <c r="D48">
-        <v>10</v>
-      </c>
-      <c r="E48">
-        <v>10</v>
-      </c>
-      <c r="F48">
-        <v>11</v>
-      </c>
-      <c r="G48">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>118</v>
       </c>
@@ -2844,20 +2257,8 @@
       <c r="C49" t="s">
         <v>441</v>
       </c>
-      <c r="D49">
-        <v>11</v>
-      </c>
-      <c r="E49">
-        <v>11</v>
-      </c>
-      <c r="F49">
-        <v>11</v>
-      </c>
-      <c r="G49">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>164</v>
       </c>
@@ -2867,20 +2268,8 @@
       <c r="C50" t="s">
         <v>441</v>
       </c>
-      <c r="D50">
-        <v>12</v>
-      </c>
-      <c r="E50">
-        <v>12</v>
-      </c>
-      <c r="F50">
-        <v>11</v>
-      </c>
-      <c r="G50">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>216</v>
       </c>
@@ -2890,20 +2279,8 @@
       <c r="C51" t="s">
         <v>441</v>
       </c>
-      <c r="D51">
-        <v>13</v>
-      </c>
-      <c r="E51">
-        <v>13</v>
-      </c>
-      <c r="F51">
-        <v>11</v>
-      </c>
-      <c r="G51">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>192</v>
       </c>
@@ -2913,20 +2290,8 @@
       <c r="C52" t="s">
         <v>441</v>
       </c>
-      <c r="D52">
-        <v>14</v>
-      </c>
-      <c r="E52">
-        <v>14</v>
-      </c>
-      <c r="F52">
-        <v>11</v>
-      </c>
-      <c r="G52">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>198</v>
       </c>
@@ -2936,20 +2301,8 @@
       <c r="C53" t="s">
         <v>441</v>
       </c>
-      <c r="D53">
-        <v>15</v>
-      </c>
-      <c r="E53">
-        <v>15</v>
-      </c>
-      <c r="F53">
-        <v>11</v>
-      </c>
-      <c r="G53">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>218</v>
       </c>
@@ -2959,20 +2312,8 @@
       <c r="C54" t="s">
         <v>441</v>
       </c>
-      <c r="D54">
-        <v>16</v>
-      </c>
-      <c r="E54">
-        <v>16</v>
-      </c>
-      <c r="F54">
-        <v>11</v>
-      </c>
-      <c r="G54">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>234</v>
       </c>
@@ -2982,20 +2323,8 @@
       <c r="C55" t="s">
         <v>441</v>
       </c>
-      <c r="D55">
-        <v>17</v>
-      </c>
-      <c r="E55">
-        <v>17</v>
-      </c>
-      <c r="F55">
-        <v>11</v>
-      </c>
-      <c r="G55">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>72</v>
       </c>
@@ -3005,20 +2334,8 @@
       <c r="C56" t="s">
         <v>441</v>
       </c>
-      <c r="D56">
-        <v>18</v>
-      </c>
-      <c r="E56">
-        <v>18</v>
-      </c>
-      <c r="F56">
-        <v>11</v>
-      </c>
-      <c r="G56">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>90</v>
       </c>
@@ -3028,20 +2345,8 @@
       <c r="C57" t="s">
         <v>441</v>
       </c>
-      <c r="D57">
-        <v>19</v>
-      </c>
-      <c r="E57">
-        <v>19</v>
-      </c>
-      <c r="F57">
-        <v>11</v>
-      </c>
-      <c r="G57">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>138</v>
       </c>
@@ -3051,20 +2356,8 @@
       <c r="C58" t="s">
         <v>441</v>
       </c>
-      <c r="D58">
-        <v>20</v>
-      </c>
-      <c r="E58">
-        <v>20</v>
-      </c>
-      <c r="F58">
-        <v>11</v>
-      </c>
-      <c r="G58">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -3074,20 +2367,8 @@
       <c r="C59" t="s">
         <v>441</v>
       </c>
-      <c r="D59">
-        <v>9</v>
-      </c>
-      <c r="E59">
-        <v>9</v>
-      </c>
-      <c r="F59">
-        <v>12</v>
-      </c>
-      <c r="G59">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -3097,20 +2378,8 @@
       <c r="C60" t="s">
         <v>441</v>
       </c>
-      <c r="D60">
-        <v>10</v>
-      </c>
-      <c r="E60">
-        <v>10</v>
-      </c>
-      <c r="F60">
-        <v>12</v>
-      </c>
-      <c r="G60">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -3120,20 +2389,8 @@
       <c r="C61" t="s">
         <v>441</v>
       </c>
-      <c r="D61">
-        <v>11</v>
-      </c>
-      <c r="E61">
-        <v>11</v>
-      </c>
-      <c r="F61">
-        <v>12</v>
-      </c>
-      <c r="G61">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>70</v>
       </c>
@@ -3143,20 +2400,8 @@
       <c r="C62" t="s">
         <v>441</v>
       </c>
-      <c r="D62">
-        <v>12</v>
-      </c>
-      <c r="E62">
-        <v>12</v>
-      </c>
-      <c r="F62">
-        <v>12</v>
-      </c>
-      <c r="G62">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>228</v>
       </c>
@@ -3166,20 +2411,8 @@
       <c r="C63" t="s">
         <v>441</v>
       </c>
-      <c r="D63">
-        <v>13</v>
-      </c>
-      <c r="E63">
-        <v>13</v>
-      </c>
-      <c r="F63">
-        <v>12</v>
-      </c>
-      <c r="G63">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>248</v>
       </c>
@@ -3189,20 +2422,8 @@
       <c r="C64" t="s">
         <v>441</v>
       </c>
-      <c r="D64">
-        <v>14</v>
-      </c>
-      <c r="E64">
-        <v>14</v>
-      </c>
-      <c r="F64">
-        <v>12</v>
-      </c>
-      <c r="G64">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>256</v>
       </c>
@@ -3212,20 +2433,8 @@
       <c r="C65" t="s">
         <v>441</v>
       </c>
-      <c r="D65">
-        <v>15</v>
-      </c>
-      <c r="E65">
-        <v>15</v>
-      </c>
-      <c r="F65">
-        <v>12</v>
-      </c>
-      <c r="G65">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>96</v>
       </c>
@@ -3235,20 +2444,8 @@
       <c r="C66" t="s">
         <v>441</v>
       </c>
-      <c r="D66">
-        <v>16</v>
-      </c>
-      <c r="E66">
-        <v>16</v>
-      </c>
-      <c r="F66">
-        <v>12</v>
-      </c>
-      <c r="G66">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>224</v>
       </c>
@@ -3258,20 +2455,8 @@
       <c r="C67" t="s">
         <v>441</v>
       </c>
-      <c r="D67">
-        <v>17</v>
-      </c>
-      <c r="E67">
-        <v>17</v>
-      </c>
-      <c r="F67">
-        <v>12</v>
-      </c>
-      <c r="G67">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>182</v>
       </c>
@@ -3281,20 +2466,8 @@
       <c r="C68" t="s">
         <v>441</v>
       </c>
-      <c r="D68">
-        <v>18</v>
-      </c>
-      <c r="E68">
-        <v>18</v>
-      </c>
-      <c r="F68">
-        <v>12</v>
-      </c>
-      <c r="G68">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>122</v>
       </c>
@@ -3304,20 +2477,8 @@
       <c r="C69" t="s">
         <v>441</v>
       </c>
-      <c r="D69">
-        <v>19</v>
-      </c>
-      <c r="E69">
-        <v>19</v>
-      </c>
-      <c r="F69">
-        <v>12</v>
-      </c>
-      <c r="G69">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>142</v>
       </c>
@@ -3327,20 +2488,8 @@
       <c r="C70" t="s">
         <v>441</v>
       </c>
-      <c r="D70">
-        <v>20</v>
-      </c>
-      <c r="E70">
-        <v>20</v>
-      </c>
-      <c r="F70">
-        <v>12</v>
-      </c>
-      <c r="G70">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>144</v>
       </c>
@@ -3350,20 +2499,8 @@
       <c r="C71" t="s">
         <v>441</v>
       </c>
-      <c r="D71">
-        <v>9</v>
-      </c>
-      <c r="E71">
-        <v>9</v>
-      </c>
-      <c r="F71">
-        <v>13</v>
-      </c>
-      <c r="G71">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>146</v>
       </c>
@@ -3373,20 +2510,8 @@
       <c r="C72" t="s">
         <v>441</v>
       </c>
-      <c r="D72">
-        <v>10</v>
-      </c>
-      <c r="E72">
-        <v>10</v>
-      </c>
-      <c r="F72">
-        <v>13</v>
-      </c>
-      <c r="G72">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>136</v>
       </c>
@@ -3396,20 +2521,8 @@
       <c r="C73" t="s">
         <v>441</v>
       </c>
-      <c r="D73">
-        <v>11</v>
-      </c>
-      <c r="E73">
-        <v>11</v>
-      </c>
-      <c r="F73">
-        <v>13</v>
-      </c>
-      <c r="G73">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>140</v>
       </c>
@@ -3419,20 +2532,8 @@
       <c r="C74" t="s">
         <v>441</v>
       </c>
-      <c r="D74">
-        <v>12</v>
-      </c>
-      <c r="E74">
-        <v>12</v>
-      </c>
-      <c r="F74">
-        <v>13</v>
-      </c>
-      <c r="G74">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>134</v>
       </c>
@@ -3442,20 +2543,8 @@
       <c r="C75" t="s">
         <v>441</v>
       </c>
-      <c r="D75">
-        <v>13</v>
-      </c>
-      <c r="E75">
-        <v>13</v>
-      </c>
-      <c r="F75">
-        <v>13</v>
-      </c>
-      <c r="G75">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -3465,20 +2554,8 @@
       <c r="C76" t="s">
         <v>441</v>
       </c>
-      <c r="D76">
-        <v>14</v>
-      </c>
-      <c r="E76">
-        <v>14</v>
-      </c>
-      <c r="F76">
-        <v>13</v>
-      </c>
-      <c r="G76">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>206</v>
       </c>
@@ -3488,20 +2565,8 @@
       <c r="C77" t="s">
         <v>441</v>
       </c>
-      <c r="D77">
-        <v>15</v>
-      </c>
-      <c r="E77">
-        <v>15</v>
-      </c>
-      <c r="F77">
-        <v>13</v>
-      </c>
-      <c r="G77">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>28</v>
       </c>
@@ -3511,20 +2576,8 @@
       <c r="C78" t="s">
         <v>441</v>
       </c>
-      <c r="D78">
-        <v>16</v>
-      </c>
-      <c r="E78">
-        <v>16</v>
-      </c>
-      <c r="F78">
-        <v>13</v>
-      </c>
-      <c r="G78">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>50</v>
       </c>
@@ -3534,20 +2587,8 @@
       <c r="C79" t="s">
         <v>441</v>
       </c>
-      <c r="D79">
-        <v>17</v>
-      </c>
-      <c r="E79">
-        <v>17</v>
-      </c>
-      <c r="F79">
-        <v>13</v>
-      </c>
-      <c r="G79">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>48</v>
       </c>
@@ -3557,20 +2598,8 @@
       <c r="C80" t="s">
         <v>441</v>
       </c>
-      <c r="D80">
-        <v>18</v>
-      </c>
-      <c r="E80">
-        <v>18</v>
-      </c>
-      <c r="F80">
-        <v>13</v>
-      </c>
-      <c r="G80">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>186</v>
       </c>
@@ -3580,20 +2609,8 @@
       <c r="C81" t="s">
         <v>441</v>
       </c>
-      <c r="D81">
-        <v>19</v>
-      </c>
-      <c r="E81">
-        <v>19</v>
-      </c>
-      <c r="F81">
-        <v>13</v>
-      </c>
-      <c r="G81">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>154</v>
       </c>
@@ -3603,20 +2620,8 @@
       <c r="C82" t="s">
         <v>441</v>
       </c>
-      <c r="D82">
-        <v>20</v>
-      </c>
-      <c r="E82">
-        <v>20</v>
-      </c>
-      <c r="F82">
-        <v>13</v>
-      </c>
-      <c r="G82">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>128</v>
       </c>
@@ -3626,20 +2631,8 @@
       <c r="C83" t="s">
         <v>441</v>
       </c>
-      <c r="D83">
-        <v>9</v>
-      </c>
-      <c r="E83">
-        <v>9</v>
-      </c>
-      <c r="F83">
-        <v>14</v>
-      </c>
-      <c r="G83">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>112</v>
       </c>
@@ -3649,20 +2642,8 @@
       <c r="C84" t="s">
         <v>441</v>
       </c>
-      <c r="D84">
-        <v>10</v>
-      </c>
-      <c r="E84">
-        <v>10</v>
-      </c>
-      <c r="F84">
-        <v>14</v>
-      </c>
-      <c r="G84">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>124</v>
       </c>
@@ -3672,20 +2653,8 @@
       <c r="C85" t="s">
         <v>441</v>
       </c>
-      <c r="D85">
-        <v>11</v>
-      </c>
-      <c r="E85">
-        <v>11</v>
-      </c>
-      <c r="F85">
-        <v>14</v>
-      </c>
-      <c r="G85">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>36</v>
       </c>
@@ -3695,20 +2664,8 @@
       <c r="C86" t="s">
         <v>441</v>
       </c>
-      <c r="D86">
-        <v>12</v>
-      </c>
-      <c r="E86">
-        <v>12</v>
-      </c>
-      <c r="F86">
-        <v>14</v>
-      </c>
-      <c r="G86">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>196</v>
       </c>
@@ -3718,20 +2675,8 @@
       <c r="C87" t="s">
         <v>441</v>
       </c>
-      <c r="D87">
-        <v>13</v>
-      </c>
-      <c r="E87">
-        <v>13</v>
-      </c>
-      <c r="F87">
-        <v>14</v>
-      </c>
-      <c r="G87">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>212</v>
       </c>
@@ -3741,20 +2686,8 @@
       <c r="C88" t="s">
         <v>441</v>
       </c>
-      <c r="D88">
-        <v>14</v>
-      </c>
-      <c r="E88">
-        <v>14</v>
-      </c>
-      <c r="F88">
-        <v>14</v>
-      </c>
-      <c r="G88">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>232</v>
       </c>
@@ -3764,20 +2697,8 @@
       <c r="C89" t="s">
         <v>441</v>
       </c>
-      <c r="D89">
-        <v>15</v>
-      </c>
-      <c r="E89">
-        <v>15</v>
-      </c>
-      <c r="F89">
-        <v>14</v>
-      </c>
-      <c r="G89">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>162</v>
       </c>
@@ -3787,20 +2708,8 @@
       <c r="C90" t="s">
         <v>441</v>
       </c>
-      <c r="D90">
-        <v>16</v>
-      </c>
-      <c r="E90">
-        <v>16</v>
-      </c>
-      <c r="F90">
-        <v>14</v>
-      </c>
-      <c r="G90">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>110</v>
       </c>
@@ -3810,20 +2719,8 @@
       <c r="C91" t="s">
         <v>441</v>
       </c>
-      <c r="D91">
-        <v>17</v>
-      </c>
-      <c r="E91">
-        <v>17</v>
-      </c>
-      <c r="F91">
-        <v>14</v>
-      </c>
-      <c r="G91">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>190</v>
       </c>
@@ -3833,20 +2730,8 @@
       <c r="C92" t="s">
         <v>441</v>
       </c>
-      <c r="D92">
-        <v>18</v>
-      </c>
-      <c r="E92">
-        <v>18</v>
-      </c>
-      <c r="F92">
-        <v>14</v>
-      </c>
-      <c r="G92">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>170</v>
       </c>
@@ -3856,20 +2741,8 @@
       <c r="C93" t="s">
         <v>441</v>
       </c>
-      <c r="D93">
-        <v>19</v>
-      </c>
-      <c r="E93">
-        <v>19</v>
-      </c>
-      <c r="F93">
-        <v>14</v>
-      </c>
-      <c r="G93">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>172</v>
       </c>
@@ -3879,20 +2752,8 @@
       <c r="C94" t="s">
         <v>441</v>
       </c>
-      <c r="D94">
-        <v>20</v>
-      </c>
-      <c r="E94">
-        <v>20</v>
-      </c>
-      <c r="F94">
-        <v>14</v>
-      </c>
-      <c r="G94">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>26</v>
       </c>
@@ -3902,20 +2763,8 @@
       <c r="C95" t="s">
         <v>441</v>
       </c>
-      <c r="D95">
-        <v>9</v>
-      </c>
-      <c r="E95">
-        <v>9</v>
-      </c>
-      <c r="F95">
-        <v>15</v>
-      </c>
-      <c r="G95">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>46</v>
       </c>
@@ -3925,20 +2774,8 @@
       <c r="C96" t="s">
         <v>441</v>
       </c>
-      <c r="D96">
-        <v>10</v>
-      </c>
-      <c r="E96">
-        <v>10</v>
-      </c>
-      <c r="F96">
-        <v>15</v>
-      </c>
-      <c r="G96">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>44</v>
       </c>
@@ -3948,20 +2785,8 @@
       <c r="C97" t="s">
         <v>441</v>
       </c>
-      <c r="D97">
-        <v>11</v>
-      </c>
-      <c r="E97">
-        <v>11</v>
-      </c>
-      <c r="F97">
-        <v>15</v>
-      </c>
-      <c r="G97">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>214</v>
       </c>
@@ -3971,20 +2796,8 @@
       <c r="C98" t="s">
         <v>441</v>
       </c>
-      <c r="D98">
-        <v>12</v>
-      </c>
-      <c r="E98">
-        <v>12</v>
-      </c>
-      <c r="F98">
-        <v>15</v>
-      </c>
-      <c r="G98">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>152</v>
       </c>
@@ -3994,20 +2807,8 @@
       <c r="C99" t="s">
         <v>441</v>
       </c>
-      <c r="D99">
-        <v>13</v>
-      </c>
-      <c r="E99">
-        <v>13</v>
-      </c>
-      <c r="F99">
-        <v>15</v>
-      </c>
-      <c r="G99">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>156</v>
       </c>
@@ -4017,20 +2818,8 @@
       <c r="C100" t="s">
         <v>441</v>
       </c>
-      <c r="D100">
-        <v>14</v>
-      </c>
-      <c r="E100">
-        <v>14</v>
-      </c>
-      <c r="F100">
-        <v>15</v>
-      </c>
-      <c r="G100">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>226</v>
       </c>
@@ -4040,20 +2829,8 @@
       <c r="C101" t="s">
         <v>441</v>
       </c>
-      <c r="D101">
-        <v>15</v>
-      </c>
-      <c r="E101">
-        <v>15</v>
-      </c>
-      <c r="F101">
-        <v>15</v>
-      </c>
-      <c r="G101">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>98</v>
       </c>
@@ -4063,20 +2840,8 @@
       <c r="C102" t="s">
         <v>441</v>
       </c>
-      <c r="D102">
-        <v>16</v>
-      </c>
-      <c r="E102">
-        <v>16</v>
-      </c>
-      <c r="F102">
-        <v>15</v>
-      </c>
-      <c r="G102">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>60</v>
       </c>
@@ -4086,20 +2851,8 @@
       <c r="C103" t="s">
         <v>441</v>
       </c>
-      <c r="D103">
-        <v>17</v>
-      </c>
-      <c r="E103">
-        <v>17</v>
-      </c>
-      <c r="F103">
-        <v>15</v>
-      </c>
-      <c r="G103">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>78</v>
       </c>
@@ -4109,20 +2862,8 @@
       <c r="C104" t="s">
         <v>441</v>
       </c>
-      <c r="D104">
-        <v>18</v>
-      </c>
-      <c r="E104">
-        <v>18</v>
-      </c>
-      <c r="F104">
-        <v>15</v>
-      </c>
-      <c r="G104">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>62</v>
       </c>
@@ -4132,20 +2873,8 @@
       <c r="C105" t="s">
         <v>441</v>
       </c>
-      <c r="D105">
-        <v>19</v>
-      </c>
-      <c r="E105">
-        <v>19</v>
-      </c>
-      <c r="F105">
-        <v>15</v>
-      </c>
-      <c r="G105">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>242</v>
       </c>
@@ -4155,20 +2884,8 @@
       <c r="C106" t="s">
         <v>441</v>
       </c>
-      <c r="D106">
-        <v>20</v>
-      </c>
-      <c r="E106">
-        <v>20</v>
-      </c>
-      <c r="F106">
-        <v>15</v>
-      </c>
-      <c r="G106">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>54</v>
       </c>
@@ -4178,20 +2895,8 @@
       <c r="C107" t="s">
         <v>441</v>
       </c>
-      <c r="D107">
-        <v>9</v>
-      </c>
-      <c r="E107">
-        <v>9</v>
-      </c>
-      <c r="F107">
-        <v>16</v>
-      </c>
-      <c r="G107">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>42</v>
       </c>
@@ -4201,20 +2906,8 @@
       <c r="C108" t="s">
         <v>441</v>
       </c>
-      <c r="D108">
-        <v>10</v>
-      </c>
-      <c r="E108">
-        <v>10</v>
-      </c>
-      <c r="F108">
-        <v>16</v>
-      </c>
-      <c r="G108">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>34</v>
       </c>
@@ -4224,20 +2917,8 @@
       <c r="C109" t="s">
         <v>441</v>
       </c>
-      <c r="D109">
-        <v>11</v>
-      </c>
-      <c r="E109">
-        <v>11</v>
-      </c>
-      <c r="F109">
-        <v>16</v>
-      </c>
-      <c r="G109">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -4247,20 +2928,8 @@
       <c r="C110" t="s">
         <v>441</v>
       </c>
-      <c r="D110">
-        <v>12</v>
-      </c>
-      <c r="E110">
-        <v>12</v>
-      </c>
-      <c r="F110">
-        <v>16</v>
-      </c>
-      <c r="G110">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>184</v>
       </c>
@@ -4270,20 +2939,8 @@
       <c r="C111" t="s">
         <v>441</v>
       </c>
-      <c r="D111">
-        <v>13</v>
-      </c>
-      <c r="E111">
-        <v>13</v>
-      </c>
-      <c r="F111">
-        <v>16</v>
-      </c>
-      <c r="G111">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>166</v>
       </c>
@@ -4293,20 +2950,8 @@
       <c r="C112" t="s">
         <v>441</v>
       </c>
-      <c r="D112">
-        <v>14</v>
-      </c>
-      <c r="E112">
-        <v>14</v>
-      </c>
-      <c r="F112">
-        <v>16</v>
-      </c>
-      <c r="G112">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>76</v>
       </c>
@@ -4316,20 +2961,8 @@
       <c r="C113" t="s">
         <v>441</v>
       </c>
-      <c r="D113">
-        <v>15</v>
-      </c>
-      <c r="E113">
-        <v>15</v>
-      </c>
-      <c r="F113">
-        <v>16</v>
-      </c>
-      <c r="G113">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>52</v>
       </c>
@@ -4339,20 +2972,8 @@
       <c r="C114" t="s">
         <v>441</v>
       </c>
-      <c r="D114">
-        <v>16</v>
-      </c>
-      <c r="E114">
-        <v>16</v>
-      </c>
-      <c r="F114">
-        <v>16</v>
-      </c>
-      <c r="G114">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>132</v>
       </c>
@@ -4362,20 +2983,8 @@
       <c r="C115" t="s">
         <v>441</v>
       </c>
-      <c r="D115">
-        <v>17</v>
-      </c>
-      <c r="E115">
-        <v>17</v>
-      </c>
-      <c r="F115">
-        <v>16</v>
-      </c>
-      <c r="G115">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>56</v>
       </c>
@@ -4385,20 +2994,8 @@
       <c r="C116" t="s">
         <v>441</v>
       </c>
-      <c r="D116">
-        <v>18</v>
-      </c>
-      <c r="E116">
-        <v>18</v>
-      </c>
-      <c r="F116">
-        <v>16</v>
-      </c>
-      <c r="G116">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>38</v>
       </c>
@@ -4408,20 +3005,8 @@
       <c r="C117" t="s">
         <v>441</v>
       </c>
-      <c r="D117">
-        <v>19</v>
-      </c>
-      <c r="E117">
-        <v>19</v>
-      </c>
-      <c r="F117">
-        <v>16</v>
-      </c>
-      <c r="G117">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>158</v>
       </c>
@@ -4431,20 +3016,8 @@
       <c r="C118" t="s">
         <v>441</v>
       </c>
-      <c r="D118">
-        <v>20</v>
-      </c>
-      <c r="E118">
-        <v>20</v>
-      </c>
-      <c r="F118">
-        <v>16</v>
-      </c>
-      <c r="G118">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>116</v>
       </c>
@@ -4454,20 +3027,8 @@
       <c r="C119" t="s">
         <v>441</v>
       </c>
-      <c r="D119">
-        <v>9</v>
-      </c>
-      <c r="E119">
-        <v>9</v>
-      </c>
-      <c r="F119">
-        <v>17</v>
-      </c>
-      <c r="G119">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>22</v>
       </c>
@@ -4477,20 +3038,8 @@
       <c r="C120" t="s">
         <v>441</v>
       </c>
-      <c r="D120">
-        <v>10</v>
-      </c>
-      <c r="E120">
-        <v>10</v>
-      </c>
-      <c r="F120">
-        <v>17</v>
-      </c>
-      <c r="G120">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>84</v>
       </c>
@@ -4500,20 +3049,8 @@
       <c r="C121" t="s">
         <v>441</v>
       </c>
-      <c r="D121">
-        <v>11</v>
-      </c>
-      <c r="E121">
-        <v>11</v>
-      </c>
-      <c r="F121">
-        <v>17</v>
-      </c>
-      <c r="G121">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>106</v>
       </c>
@@ -4523,20 +3060,8 @@
       <c r="C122" t="s">
         <v>441</v>
       </c>
-      <c r="D122">
-        <v>12</v>
-      </c>
-      <c r="E122">
-        <v>12</v>
-      </c>
-      <c r="F122">
-        <v>17</v>
-      </c>
-      <c r="G122">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>20</v>
       </c>
@@ -4546,20 +3071,8 @@
       <c r="C123" t="s">
         <v>441</v>
       </c>
-      <c r="D123">
-        <v>13</v>
-      </c>
-      <c r="E123">
-        <v>13</v>
-      </c>
-      <c r="F123">
-        <v>17</v>
-      </c>
-      <c r="G123">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>18</v>
       </c>
@@ -4569,20 +3082,8 @@
       <c r="C124" t="s">
         <v>441</v>
       </c>
-      <c r="D124">
-        <v>14</v>
-      </c>
-      <c r="E124">
-        <v>14</v>
-      </c>
-      <c r="F124">
-        <v>17</v>
-      </c>
-      <c r="G124">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>114</v>
       </c>
@@ -4592,20 +3093,8 @@
       <c r="C125" t="s">
         <v>441</v>
       </c>
-      <c r="D125">
-        <v>15</v>
-      </c>
-      <c r="E125">
-        <v>15</v>
-      </c>
-      <c r="F125">
-        <v>17</v>
-      </c>
-      <c r="G125">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>130</v>
       </c>
@@ -4615,20 +3104,8 @@
       <c r="C126" t="s">
         <v>441</v>
       </c>
-      <c r="D126">
-        <v>16</v>
-      </c>
-      <c r="E126">
-        <v>16</v>
-      </c>
-      <c r="F126">
-        <v>17</v>
-      </c>
-      <c r="G126">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -4638,20 +3115,8 @@
       <c r="C127" t="s">
         <v>441</v>
       </c>
-      <c r="D127">
-        <v>17</v>
-      </c>
-      <c r="E127">
-        <v>17</v>
-      </c>
-      <c r="F127">
-        <v>17</v>
-      </c>
-      <c r="G127">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>100</v>
       </c>
@@ -4661,20 +3126,8 @@
       <c r="C128" t="s">
         <v>441</v>
       </c>
-      <c r="D128">
-        <v>18</v>
-      </c>
-      <c r="E128">
-        <v>18</v>
-      </c>
-      <c r="F128">
-        <v>17</v>
-      </c>
-      <c r="G128">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>30</v>
       </c>
@@ -4684,20 +3137,8 @@
       <c r="C129" t="s">
         <v>441</v>
       </c>
-      <c r="D129">
-        <v>19</v>
-      </c>
-      <c r="E129">
-        <v>19</v>
-      </c>
-      <c r="F129">
-        <v>17</v>
-      </c>
-      <c r="G129">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>94</v>
       </c>
@@ -4707,20 +3148,8 @@
       <c r="C130" t="s">
         <v>441</v>
       </c>
-      <c r="D130">
-        <v>20</v>
-      </c>
-      <c r="E130">
-        <v>20</v>
-      </c>
-      <c r="F130">
-        <v>17</v>
-      </c>
-      <c r="G130">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>220</v>
       </c>
@@ -4730,20 +3159,8 @@
       <c r="C131" t="s">
         <v>441</v>
       </c>
-      <c r="D131">
-        <v>9</v>
-      </c>
-      <c r="E131">
-        <v>9</v>
-      </c>
-      <c r="F131">
-        <v>18</v>
-      </c>
-      <c r="G131">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>252</v>
       </c>
@@ -4753,20 +3170,8 @@
       <c r="C132" t="s">
         <v>441</v>
       </c>
-      <c r="D132">
-        <v>10</v>
-      </c>
-      <c r="E132">
-        <v>10</v>
-      </c>
-      <c r="F132">
-        <v>18</v>
-      </c>
-      <c r="G132">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>188</v>
       </c>
@@ -4776,20 +3181,8 @@
       <c r="C133" t="s">
         <v>441</v>
       </c>
-      <c r="D133">
-        <v>11</v>
-      </c>
-      <c r="E133">
-        <v>11</v>
-      </c>
-      <c r="F133">
-        <v>18</v>
-      </c>
-      <c r="G133">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>174</v>
       </c>
@@ -4799,20 +3192,8 @@
       <c r="C134" t="s">
         <v>441</v>
       </c>
-      <c r="D134">
-        <v>12</v>
-      </c>
-      <c r="E134">
-        <v>12</v>
-      </c>
-      <c r="F134">
-        <v>18</v>
-      </c>
-      <c r="G134">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>238</v>
       </c>
@@ -4822,20 +3203,8 @@
       <c r="C135" t="s">
         <v>441</v>
       </c>
-      <c r="D135">
-        <v>13</v>
-      </c>
-      <c r="E135">
-        <v>13</v>
-      </c>
-      <c r="F135">
-        <v>18</v>
-      </c>
-      <c r="G135">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>236</v>
       </c>
@@ -4845,20 +3214,8 @@
       <c r="C136" t="s">
         <v>441</v>
       </c>
-      <c r="D136">
-        <v>14</v>
-      </c>
-      <c r="E136">
-        <v>14</v>
-      </c>
-      <c r="F136">
-        <v>18</v>
-      </c>
-      <c r="G136">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>246</v>
       </c>
@@ -4868,20 +3225,8 @@
       <c r="C137" t="s">
         <v>441</v>
       </c>
-      <c r="D137">
-        <v>15</v>
-      </c>
-      <c r="E137">
-        <v>15</v>
-      </c>
-      <c r="F137">
-        <v>18</v>
-      </c>
-      <c r="G137">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>210</v>
       </c>
@@ -4891,20 +3236,8 @@
       <c r="C138" t="s">
         <v>441</v>
       </c>
-      <c r="D138">
-        <v>16</v>
-      </c>
-      <c r="E138">
-        <v>16</v>
-      </c>
-      <c r="F138">
-        <v>18</v>
-      </c>
-      <c r="G138">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>40</v>
       </c>
@@ -4914,20 +3247,8 @@
       <c r="C139" t="s">
         <v>441</v>
       </c>
-      <c r="D139">
-        <v>17</v>
-      </c>
-      <c r="E139">
-        <v>17</v>
-      </c>
-      <c r="F139">
-        <v>18</v>
-      </c>
-      <c r="G139">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>160</v>
       </c>
@@ -4937,20 +3258,8 @@
       <c r="C140" t="s">
         <v>441</v>
       </c>
-      <c r="D140">
-        <v>18</v>
-      </c>
-      <c r="E140">
-        <v>18</v>
-      </c>
-      <c r="F140">
-        <v>18</v>
-      </c>
-      <c r="G140">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>168</v>
       </c>
@@ -4960,20 +3269,8 @@
       <c r="C141" t="s">
         <v>441</v>
       </c>
-      <c r="D141">
-        <v>19</v>
-      </c>
-      <c r="E141">
-        <v>19</v>
-      </c>
-      <c r="F141">
-        <v>18</v>
-      </c>
-      <c r="G141">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>194</v>
       </c>
@@ -4983,20 +3280,8 @@
       <c r="C142" t="s">
         <v>441</v>
       </c>
-      <c r="D142">
-        <v>20</v>
-      </c>
-      <c r="E142">
-        <v>20</v>
-      </c>
-      <c r="F142">
-        <v>18</v>
-      </c>
-      <c r="G142">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>222</v>
       </c>
@@ -5006,20 +3291,8 @@
       <c r="C143" t="s">
         <v>441</v>
       </c>
-      <c r="D143">
-        <v>9</v>
-      </c>
-      <c r="E143">
-        <v>9</v>
-      </c>
-      <c r="F143">
-        <v>19</v>
-      </c>
-      <c r="G143">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>120</v>
       </c>
@@ -5029,20 +3302,8 @@
       <c r="C144" t="s">
         <v>441</v>
       </c>
-      <c r="D144">
-        <v>10</v>
-      </c>
-      <c r="E144">
-        <v>10</v>
-      </c>
-      <c r="F144">
-        <v>19</v>
-      </c>
-      <c r="G144">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>180</v>
       </c>
@@ -5052,20 +3313,8 @@
       <c r="C145" t="s">
         <v>441</v>
       </c>
-      <c r="D145">
-        <v>11</v>
-      </c>
-      <c r="E145">
-        <v>11</v>
-      </c>
-      <c r="F145">
-        <v>19</v>
-      </c>
-      <c r="G145">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>104</v>
       </c>
@@ -5075,20 +3324,8 @@
       <c r="C146" t="s">
         <v>441</v>
       </c>
-      <c r="D146">
-        <v>12</v>
-      </c>
-      <c r="E146">
-        <v>12</v>
-      </c>
-      <c r="F146">
-        <v>19</v>
-      </c>
-      <c r="G146">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>244</v>
       </c>
@@ -5098,20 +3335,8 @@
       <c r="C147" t="s">
         <v>441</v>
       </c>
-      <c r="D147">
-        <v>13</v>
-      </c>
-      <c r="E147">
-        <v>13</v>
-      </c>
-      <c r="F147">
-        <v>19</v>
-      </c>
-      <c r="G147">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>24</v>
       </c>
@@ -5121,20 +3346,8 @@
       <c r="C148" t="s">
         <v>441</v>
       </c>
-      <c r="D148">
-        <v>14</v>
-      </c>
-      <c r="E148">
-        <v>14</v>
-      </c>
-      <c r="F148">
-        <v>19</v>
-      </c>
-      <c r="G148">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -5144,20 +3357,8 @@
       <c r="C149" t="s">
         <v>441</v>
       </c>
-      <c r="D149">
-        <v>15</v>
-      </c>
-      <c r="E149">
-        <v>15</v>
-      </c>
-      <c r="F149">
-        <v>19</v>
-      </c>
-      <c r="G149">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>200</v>
       </c>
@@ -5167,20 +3368,8 @@
       <c r="C150" t="s">
         <v>441</v>
       </c>
-      <c r="D150">
-        <v>16</v>
-      </c>
-      <c r="E150">
-        <v>16</v>
-      </c>
-      <c r="F150">
-        <v>19</v>
-      </c>
-      <c r="G150">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>176</v>
       </c>
@@ -5190,20 +3379,8 @@
       <c r="C151" t="s">
         <v>441</v>
       </c>
-      <c r="D151">
-        <v>17</v>
-      </c>
-      <c r="E151">
-        <v>17</v>
-      </c>
-      <c r="F151">
-        <v>19</v>
-      </c>
-      <c r="G151">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>204</v>
       </c>
@@ -5213,20 +3390,8 @@
       <c r="C152" t="s">
         <v>441</v>
       </c>
-      <c r="D152">
-        <v>18</v>
-      </c>
-      <c r="E152">
-        <v>18</v>
-      </c>
-      <c r="F152">
-        <v>19</v>
-      </c>
-      <c r="G152">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>230</v>
       </c>
@@ -5236,20 +3401,8 @@
       <c r="C153" t="s">
         <v>441</v>
       </c>
-      <c r="D153">
-        <v>19</v>
-      </c>
-      <c r="E153">
-        <v>19</v>
-      </c>
-      <c r="F153">
-        <v>19</v>
-      </c>
-      <c r="G153">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>64</v>
       </c>
@@ -5259,20 +3412,8 @@
       <c r="C154" t="s">
         <v>441</v>
       </c>
-      <c r="D154">
-        <v>20</v>
-      </c>
-      <c r="E154">
-        <v>20</v>
-      </c>
-      <c r="F154">
-        <v>19</v>
-      </c>
-      <c r="G154">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>2</v>
       </c>
@@ -5282,20 +3423,8 @@
       <c r="C155" t="s">
         <v>442</v>
       </c>
-      <c r="D155">
-        <v>0</v>
-      </c>
-      <c r="E155">
-        <v>0</v>
-      </c>
-      <c r="F155">
-        <v>0</v>
-      </c>
-      <c r="G155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>268</v>
       </c>
@@ -5305,20 +3434,8 @@
       <c r="C156" t="s">
         <v>436</v>
       </c>
-      <c r="D156">
-        <v>14</v>
-      </c>
-      <c r="E156">
-        <v>14</v>
-      </c>
-      <c r="F156">
-        <v>1</v>
-      </c>
-      <c r="G156">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>270</v>
       </c>
@@ -5328,20 +3445,8 @@
       <c r="C157" t="s">
         <v>436</v>
       </c>
-      <c r="D157">
-        <v>15</v>
-      </c>
-      <c r="E157">
-        <v>15</v>
-      </c>
-      <c r="F157">
-        <v>1</v>
-      </c>
-      <c r="G157">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>12</v>
       </c>
@@ -5351,20 +3456,8 @@
       <c r="C158" t="s">
         <v>436</v>
       </c>
-      <c r="D158">
-        <v>16</v>
-      </c>
-      <c r="E158">
-        <v>16</v>
-      </c>
-      <c r="F158">
-        <v>1</v>
-      </c>
-      <c r="G158">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>266</v>
       </c>
@@ -5374,20 +3467,8 @@
       <c r="C159" t="s">
         <v>436</v>
       </c>
-      <c r="D159">
-        <v>17</v>
-      </c>
-      <c r="E159">
-        <v>17</v>
-      </c>
-      <c r="F159">
-        <v>1</v>
-      </c>
-      <c r="G159">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>264</v>
       </c>
@@ -5397,20 +3478,8 @@
       <c r="C160" t="s">
         <v>436</v>
       </c>
-      <c r="D160">
-        <v>18</v>
-      </c>
-      <c r="E160">
-        <v>18</v>
-      </c>
-      <c r="F160">
-        <v>1</v>
-      </c>
-      <c r="G160">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>262</v>
       </c>
@@ -5420,20 +3489,8 @@
       <c r="C161" t="s">
         <v>436</v>
       </c>
-      <c r="D161">
-        <v>19</v>
-      </c>
-      <c r="E161">
-        <v>19</v>
-      </c>
-      <c r="F161">
-        <v>1</v>
-      </c>
-      <c r="G161">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>10</v>
       </c>
@@ -5443,20 +3500,8 @@
       <c r="C162" t="s">
         <v>436</v>
       </c>
-      <c r="D162">
-        <v>20</v>
-      </c>
-      <c r="E162">
-        <v>20</v>
-      </c>
-      <c r="F162">
-        <v>1</v>
-      </c>
-      <c r="G162">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>416</v>
       </c>
@@ -5466,20 +3511,8 @@
       <c r="C163" t="s">
         <v>440</v>
       </c>
-      <c r="D163">
-        <v>1</v>
-      </c>
-      <c r="E163">
-        <v>2</v>
-      </c>
-      <c r="F163">
-        <v>9</v>
-      </c>
-      <c r="G163">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>404</v>
       </c>
@@ -5489,20 +3522,8 @@
       <c r="C164" t="s">
         <v>440</v>
       </c>
-      <c r="D164">
-        <v>1</v>
-      </c>
-      <c r="E164">
-        <v>2</v>
-      </c>
-      <c r="F164">
-        <v>10</v>
-      </c>
-      <c r="G164">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>398</v>
       </c>
@@ -5512,20 +3533,8 @@
       <c r="C165" t="s">
         <v>440</v>
       </c>
-      <c r="D165">
-        <v>1</v>
-      </c>
-      <c r="E165">
-        <v>2</v>
-      </c>
-      <c r="F165">
-        <v>11</v>
-      </c>
-      <c r="G165">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>16</v>
       </c>
@@ -5535,20 +3544,8 @@
       <c r="C166" t="s">
         <v>440</v>
       </c>
-      <c r="D166">
-        <v>1</v>
-      </c>
-      <c r="E166">
-        <v>2</v>
-      </c>
-      <c r="F166">
-        <v>12</v>
-      </c>
-      <c r="G166">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>402</v>
       </c>
@@ -5558,20 +3555,8 @@
       <c r="C167" t="s">
         <v>440</v>
       </c>
-      <c r="D167">
-        <v>1</v>
-      </c>
-      <c r="E167">
-        <v>2</v>
-      </c>
-      <c r="F167">
-        <v>13</v>
-      </c>
-      <c r="G167">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>406</v>
       </c>
@@ -5581,20 +3566,8 @@
       <c r="C168" t="s">
         <v>440</v>
       </c>
-      <c r="D168">
-        <v>3</v>
-      </c>
-      <c r="E168">
-        <v>4</v>
-      </c>
-      <c r="F168">
-        <v>9</v>
-      </c>
-      <c r="G168">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>418</v>
       </c>
@@ -5604,20 +3577,8 @@
       <c r="C169" t="s">
         <v>440</v>
       </c>
-      <c r="D169">
-        <v>3</v>
-      </c>
-      <c r="E169">
-        <v>4</v>
-      </c>
-      <c r="F169">
-        <v>10</v>
-      </c>
-      <c r="G169">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>422</v>
       </c>
@@ -5627,20 +3588,8 @@
       <c r="C170" t="s">
         <v>440</v>
       </c>
-      <c r="D170">
-        <v>3</v>
-      </c>
-      <c r="E170">
-        <v>4</v>
-      </c>
-      <c r="F170">
-        <v>11</v>
-      </c>
-      <c r="G170">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>424</v>
       </c>
@@ -5650,20 +3599,8 @@
       <c r="C171" t="s">
         <v>440</v>
       </c>
-      <c r="D171">
-        <v>3</v>
-      </c>
-      <c r="E171">
-        <v>4</v>
-      </c>
-      <c r="F171">
-        <v>12</v>
-      </c>
-      <c r="G171">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>426</v>
       </c>
@@ -5673,20 +3610,8 @@
       <c r="C172" t="s">
         <v>440</v>
       </c>
-      <c r="D172">
-        <v>3</v>
-      </c>
-      <c r="E172">
-        <v>4</v>
-      </c>
-      <c r="F172">
-        <v>13</v>
-      </c>
-      <c r="G172">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>410</v>
       </c>
@@ -5696,20 +3621,8 @@
       <c r="C173" t="s">
         <v>440</v>
       </c>
-      <c r="D173">
-        <v>5</v>
-      </c>
-      <c r="E173">
-        <v>6</v>
-      </c>
-      <c r="F173">
-        <v>9</v>
-      </c>
-      <c r="G173">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>400</v>
       </c>
@@ -5719,20 +3632,8 @@
       <c r="C174" t="s">
         <v>440</v>
       </c>
-      <c r="D174">
-        <v>5</v>
-      </c>
-      <c r="E174">
-        <v>6</v>
-      </c>
-      <c r="F174">
-        <v>10</v>
-      </c>
-      <c r="G174">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>412</v>
       </c>
@@ -5742,20 +3643,8 @@
       <c r="C175" t="s">
         <v>440</v>
       </c>
-      <c r="D175">
-        <v>5</v>
-      </c>
-      <c r="E175">
-        <v>6</v>
-      </c>
-      <c r="F175">
-        <v>11</v>
-      </c>
-      <c r="G175">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>408</v>
       </c>
@@ -5765,20 +3654,8 @@
       <c r="C176" t="s">
         <v>440</v>
       </c>
-      <c r="D176">
-        <v>5</v>
-      </c>
-      <c r="E176">
-        <v>6</v>
-      </c>
-      <c r="F176">
-        <v>12</v>
-      </c>
-      <c r="G176">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>430</v>
       </c>
@@ -5788,20 +3665,8 @@
       <c r="C177" t="s">
         <v>440</v>
       </c>
-      <c r="D177">
-        <v>7</v>
-      </c>
-      <c r="E177">
-        <v>8</v>
-      </c>
-      <c r="F177">
-        <v>9</v>
-      </c>
-      <c r="G177">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>428</v>
       </c>
@@ -5811,20 +3676,8 @@
       <c r="C178" t="s">
         <v>440</v>
       </c>
-      <c r="D178">
-        <v>7</v>
-      </c>
-      <c r="E178">
-        <v>8</v>
-      </c>
-      <c r="F178">
-        <v>10</v>
-      </c>
-      <c r="G178">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>414</v>
       </c>
@@ -5834,20 +3687,8 @@
       <c r="C179" t="s">
         <v>440</v>
       </c>
-      <c r="D179">
-        <v>7</v>
-      </c>
-      <c r="E179">
-        <v>8</v>
-      </c>
-      <c r="F179">
-        <v>11</v>
-      </c>
-      <c r="G179">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>420</v>
       </c>
@@ -5857,20 +3698,8 @@
       <c r="C180" t="s">
         <v>440</v>
       </c>
-      <c r="D180">
-        <v>7</v>
-      </c>
-      <c r="E180">
-        <v>8</v>
-      </c>
-      <c r="F180">
-        <v>12</v>
-      </c>
-      <c r="G180">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>328</v>
       </c>
@@ -5880,20 +3709,8 @@
       <c r="C181" t="s">
         <v>433</v>
       </c>
-      <c r="D181">
-        <v>5</v>
-      </c>
-      <c r="E181">
-        <v>6</v>
-      </c>
-      <c r="F181">
-        <v>13</v>
-      </c>
-      <c r="G181">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>362</v>
       </c>
@@ -5903,20 +3720,8 @@
       <c r="C182" t="s">
         <v>433</v>
       </c>
-      <c r="D182">
-        <v>7</v>
-      </c>
-      <c r="E182">
-        <v>8</v>
-      </c>
-      <c r="F182">
-        <v>13</v>
-      </c>
-      <c r="G182">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>324</v>
       </c>
@@ -5926,20 +3731,8 @@
       <c r="C183" t="s">
         <v>433</v>
       </c>
-      <c r="D183">
-        <v>1</v>
-      </c>
-      <c r="E183">
-        <v>2</v>
-      </c>
-      <c r="F183">
-        <v>14</v>
-      </c>
-      <c r="G183">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>366</v>
       </c>
@@ -5949,20 +3742,8 @@
       <c r="C184" t="s">
         <v>433</v>
       </c>
-      <c r="D184">
-        <v>1</v>
-      </c>
-      <c r="E184">
-        <v>2</v>
-      </c>
-      <c r="F184">
-        <v>15</v>
-      </c>
-      <c r="G184">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>356</v>
       </c>
@@ -5972,20 +3753,8 @@
       <c r="C185" t="s">
         <v>433</v>
       </c>
-      <c r="D185">
-        <v>1</v>
-      </c>
-      <c r="E185">
-        <v>2</v>
-      </c>
-      <c r="F185">
-        <v>16</v>
-      </c>
-      <c r="G185">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>372</v>
       </c>
@@ -5995,20 +3764,8 @@
       <c r="C186" t="s">
         <v>433</v>
       </c>
-      <c r="D186">
-        <v>1</v>
-      </c>
-      <c r="E186">
-        <v>2</v>
-      </c>
-      <c r="F186">
-        <v>17</v>
-      </c>
-      <c r="G186">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>344</v>
       </c>
@@ -6018,20 +3775,8 @@
       <c r="C187" t="s">
         <v>433</v>
       </c>
-      <c r="D187">
-        <v>1</v>
-      </c>
-      <c r="E187">
-        <v>2</v>
-      </c>
-      <c r="F187">
-        <v>18</v>
-      </c>
-      <c r="G187">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>352</v>
       </c>
@@ -6041,20 +3786,8 @@
       <c r="C188" t="s">
         <v>433</v>
       </c>
-      <c r="D188">
-        <v>1</v>
-      </c>
-      <c r="E188">
-        <v>2</v>
-      </c>
-      <c r="F188">
-        <v>19</v>
-      </c>
-      <c r="G188">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>348</v>
       </c>
@@ -6064,20 +3797,8 @@
       <c r="C189" t="s">
         <v>433</v>
       </c>
-      <c r="D189">
-        <v>3</v>
-      </c>
-      <c r="E189">
-        <v>4</v>
-      </c>
-      <c r="F189">
-        <v>14</v>
-      </c>
-      <c r="G189">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>340</v>
       </c>
@@ -6087,20 +3808,8 @@
       <c r="C190" t="s">
         <v>433</v>
       </c>
-      <c r="D190">
-        <v>3</v>
-      </c>
-      <c r="E190">
-        <v>4</v>
-      </c>
-      <c r="F190">
-        <v>15</v>
-      </c>
-      <c r="G190">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>332</v>
       </c>
@@ -6110,20 +3819,8 @@
       <c r="C191" t="s">
         <v>433</v>
       </c>
-      <c r="D191">
-        <v>3</v>
-      </c>
-      <c r="E191">
-        <v>4</v>
-      </c>
-      <c r="F191">
-        <v>16</v>
-      </c>
-      <c r="G191">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>336</v>
       </c>
@@ -6133,20 +3830,8 @@
       <c r="C192" t="s">
         <v>433</v>
       </c>
-      <c r="D192">
-        <v>3</v>
-      </c>
-      <c r="E192">
-        <v>4</v>
-      </c>
-      <c r="F192">
-        <v>17</v>
-      </c>
-      <c r="G192">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>326</v>
       </c>
@@ -6156,20 +3841,8 @@
       <c r="C193" t="s">
         <v>433</v>
       </c>
-      <c r="D193">
-        <v>3</v>
-      </c>
-      <c r="E193">
-        <v>4</v>
-      </c>
-      <c r="F193">
-        <v>18</v>
-      </c>
-      <c r="G193">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>358</v>
       </c>
@@ -6179,20 +3852,8 @@
       <c r="C194" t="s">
         <v>433</v>
       </c>
-      <c r="D194">
-        <v>3</v>
-      </c>
-      <c r="E194">
-        <v>4</v>
-      </c>
-      <c r="F194">
-        <v>19</v>
-      </c>
-      <c r="G194">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>322</v>
       </c>
@@ -6202,20 +3863,8 @@
       <c r="C195" t="s">
         <v>433</v>
       </c>
-      <c r="D195">
-        <v>5</v>
-      </c>
-      <c r="E195">
-        <v>6</v>
-      </c>
-      <c r="F195">
-        <v>14</v>
-      </c>
-      <c r="G195">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>354</v>
       </c>
@@ -6225,20 +3874,8 @@
       <c r="C196" t="s">
         <v>433</v>
       </c>
-      <c r="D196">
-        <v>5</v>
-      </c>
-      <c r="E196">
-        <v>6</v>
-      </c>
-      <c r="F196">
-        <v>15</v>
-      </c>
-      <c r="G196">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>342</v>
       </c>
@@ -6248,20 +3885,8 @@
       <c r="C197" t="s">
         <v>433</v>
       </c>
-      <c r="D197">
-        <v>5</v>
-      </c>
-      <c r="E197">
-        <v>6</v>
-      </c>
-      <c r="F197">
-        <v>16</v>
-      </c>
-      <c r="G197">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>350</v>
       </c>
@@ -6271,20 +3896,8 @@
       <c r="C198" t="s">
         <v>433</v>
       </c>
-      <c r="D198">
-        <v>5</v>
-      </c>
-      <c r="E198">
-        <v>6</v>
-      </c>
-      <c r="F198">
-        <v>17</v>
-      </c>
-      <c r="G198">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>346</v>
       </c>
@@ -6294,20 +3907,8 @@
       <c r="C199" t="s">
         <v>433</v>
       </c>
-      <c r="D199">
-        <v>5</v>
-      </c>
-      <c r="E199">
-        <v>6</v>
-      </c>
-      <c r="F199">
-        <v>18</v>
-      </c>
-      <c r="G199">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>338</v>
       </c>
@@ -6317,20 +3918,8 @@
       <c r="C200" t="s">
         <v>433</v>
       </c>
-      <c r="D200">
-        <v>5</v>
-      </c>
-      <c r="E200">
-        <v>6</v>
-      </c>
-      <c r="F200">
-        <v>19</v>
-      </c>
-      <c r="G200">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>330</v>
       </c>
@@ -6340,20 +3929,8 @@
       <c r="C201" t="s">
         <v>433</v>
       </c>
-      <c r="D201">
-        <v>7</v>
-      </c>
-      <c r="E201">
-        <v>8</v>
-      </c>
-      <c r="F201">
-        <v>14</v>
-      </c>
-      <c r="G201">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>334</v>
       </c>
@@ -6363,20 +3940,8 @@
       <c r="C202" t="s">
         <v>433</v>
       </c>
-      <c r="D202">
-        <v>7</v>
-      </c>
-      <c r="E202">
-        <v>8</v>
-      </c>
-      <c r="F202">
-        <v>15</v>
-      </c>
-      <c r="G202">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>360</v>
       </c>
@@ -6386,20 +3951,8 @@
       <c r="C203" t="s">
         <v>433</v>
       </c>
-      <c r="D203">
-        <v>7</v>
-      </c>
-      <c r="E203">
-        <v>8</v>
-      </c>
-      <c r="F203">
-        <v>16</v>
-      </c>
-      <c r="G203">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>364</v>
       </c>
@@ -6409,20 +3962,8 @@
       <c r="C204" t="s">
         <v>433</v>
       </c>
-      <c r="D204">
-        <v>7</v>
-      </c>
-      <c r="E204">
-        <v>8</v>
-      </c>
-      <c r="F204">
-        <v>17</v>
-      </c>
-      <c r="G204">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>370</v>
       </c>
@@ -6432,20 +3973,8 @@
       <c r="C205" t="s">
         <v>433</v>
       </c>
-      <c r="D205">
-        <v>7</v>
-      </c>
-      <c r="E205">
-        <v>8</v>
-      </c>
-      <c r="F205">
-        <v>18</v>
-      </c>
-      <c r="G205">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>368</v>
       </c>
@@ -6455,20 +3984,8 @@
       <c r="C206" t="s">
         <v>433</v>
       </c>
-      <c r="D206">
-        <v>7</v>
-      </c>
-      <c r="E206">
-        <v>8</v>
-      </c>
-      <c r="F206">
-        <v>19</v>
-      </c>
-      <c r="G206">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>280</v>
       </c>
@@ -6478,20 +3995,8 @@
       <c r="C207" t="s">
         <v>435</v>
       </c>
-      <c r="D207">
-        <v>13</v>
-      </c>
-      <c r="E207">
-        <v>16</v>
-      </c>
-      <c r="F207">
-        <v>5</v>
-      </c>
-      <c r="G207">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>276</v>
       </c>
@@ -6501,20 +4006,8 @@
       <c r="C208" t="s">
         <v>435</v>
       </c>
-      <c r="D208">
-        <v>13</v>
-      </c>
-      <c r="E208">
-        <v>16</v>
-      </c>
-      <c r="F208">
-        <v>6</v>
-      </c>
-      <c r="G208">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>274</v>
       </c>
@@ -6524,20 +4017,8 @@
       <c r="C209" t="s">
         <v>435</v>
       </c>
-      <c r="D209">
-        <v>13</v>
-      </c>
-      <c r="E209">
-        <v>16</v>
-      </c>
-      <c r="F209">
-        <v>7</v>
-      </c>
-      <c r="G209">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>278</v>
       </c>
@@ -6547,20 +4028,8 @@
       <c r="C210" t="s">
         <v>435</v>
       </c>
-      <c r="D210">
-        <v>13</v>
-      </c>
-      <c r="E210">
-        <v>16</v>
-      </c>
-      <c r="F210">
-        <v>8</v>
-      </c>
-      <c r="G210">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>272</v>
       </c>
@@ -6570,20 +4039,8 @@
       <c r="C211" t="s">
         <v>435</v>
       </c>
-      <c r="D211">
-        <v>13</v>
-      </c>
-      <c r="E211">
-        <v>16</v>
-      </c>
-      <c r="F211">
-        <v>9</v>
-      </c>
-      <c r="G211">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>6</v>
       </c>
@@ -6593,20 +4050,8 @@
       <c r="C212" t="s">
         <v>434</v>
       </c>
-      <c r="D212">
-        <v>17</v>
-      </c>
-      <c r="E212">
-        <v>20</v>
-      </c>
-      <c r="F212">
-        <v>5</v>
-      </c>
-      <c r="G212">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>8</v>
       </c>
@@ -6616,20 +4061,8 @@
       <c r="C213" t="s">
         <v>434</v>
       </c>
-      <c r="D213">
-        <v>17</v>
-      </c>
-      <c r="E213">
-        <v>20</v>
-      </c>
-      <c r="F213">
-        <v>6</v>
-      </c>
-      <c r="G213">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>258</v>
       </c>
@@ -6639,20 +4072,8 @@
       <c r="C214" t="s">
         <v>434</v>
       </c>
-      <c r="D214">
-        <v>17</v>
-      </c>
-      <c r="E214">
-        <v>20</v>
-      </c>
-      <c r="F214">
-        <v>7</v>
-      </c>
-      <c r="G214">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>260</v>
       </c>
@@ -6662,20 +4083,8 @@
       <c r="C215" t="s">
         <v>434</v>
       </c>
-      <c r="D215">
-        <v>17</v>
-      </c>
-      <c r="E215">
-        <v>20</v>
-      </c>
-      <c r="F215">
-        <v>8</v>
-      </c>
-      <c r="G215">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>4</v>
       </c>
@@ -6684,18 +4093,6 @@
       </c>
       <c r="C216" t="s">
         <v>434</v>
-      </c>
-      <c r="D216">
-        <v>17</v>
-      </c>
-      <c r="E216">
-        <v>20</v>
-      </c>
-      <c r="F216">
-        <v>9</v>
-      </c>
-      <c r="G216">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
